--- a/demo/tablas_excel/CR/revocando/tablafinal.xlsx
+++ b/demo/tablas_excel/CR/revocando/tablafinal.xlsx
@@ -484,7 +484,7 @@
         <v>0.3232</v>
       </c>
       <c r="F2" t="n">
-        <v>1.0712</v>
+        <v>0.10712</v>
       </c>
       <c r="G2" t="n">
         <v>37.25839999999999</v>
@@ -509,7 +509,7 @@
         <v>0.2824</v>
       </c>
       <c r="F3" t="n">
-        <v>1.75</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="G3" t="n">
         <v>39.3116</v>
@@ -534,7 +534,7 @@
         <v>0.2643478260869566</v>
       </c>
       <c r="F4" t="n">
-        <v>4.31695652173913</v>
+        <v>0.08633913043478261</v>
       </c>
       <c r="G4" t="n">
         <v>54.73347826086956</v>
@@ -559,7 +559,7 @@
         <v>0.276</v>
       </c>
       <c r="F5" t="n">
-        <v>9.0924</v>
+        <v>0.09092400000000002</v>
       </c>
       <c r="G5" t="n">
         <v>68.7188</v>
